--- a/public/uploads/excel/temp.xlsx
+++ b/public/uploads/excel/temp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751A747E-B2CD-4136-8F6C-A12DD9C890FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4ED0CA-4B79-49AB-9FCF-733D10E2D047}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Nama</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>yeiyeiyei</t>
+  </si>
+  <si>
+    <t>parent3</t>
+  </si>
+  <si>
+    <t>weiweiwei</t>
+  </si>
+  <si>
+    <t>parent4</t>
+  </si>
+  <si>
+    <t>peipeipei</t>
+  </si>
+  <si>
+    <t>parent5</t>
   </si>
 </sst>
 </file>
@@ -386,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,6 +471,48 @@
         <v>100000000000</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <v>300000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>400000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>500000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
